--- a/trend_results/Rivers/RangitikeiatdsRiverlands_b208b9cbb8.xlsx
+++ b/trend_results/Rivers/RangitikeiatdsRiverlands_b208b9cbb8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.029752342820215</v>
+        <v>0.970247657179785</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.41054879177598</v>
+        <v>0.58945120822402</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0117299504973143</v>
+        <v>0.988270049502686</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.018617897657161</v>
+        <v>0.981382102342839</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.703320078213534</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0147058823529412</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.544117647058823</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0072995173421481</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0142954990215264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0451653886317862</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.729951734214813</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.999704001237622</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.07983606557377031</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.038536632475007</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.116788366823801</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.730430609092135</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0427369523763764</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.668711656441718</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0009995894909688001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.002014138130194</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.85109164994222</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.900894690480579</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.662576687116564</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>147</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-4.03963133640553</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-8.65230540633576</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.894912369314076</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-2.74804852816703</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.368506461868611</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.425806451612903</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.651612903225806</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0231984221440062</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0002846377821577</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.384503989969375</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.169934640522876</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.405228758169935</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0002375170282782</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0002989175959041</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0034099209161277</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.124183006535948</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1936</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0071051671732522</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0018446983898543</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0149758443085542</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.67002436634932</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999999999990459</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.632911392405063</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.975</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0549248120300753</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0431734096176977</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0668956043956045</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.688712376552669</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.213988587784096</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.883435582822086</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0027708620689655</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0040535364642372</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0096392904113851</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.02624521072797</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.364381283506809</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.723926380368098</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0016662864963503</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0099899175317408</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0116068444695702</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.340058468642931</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.244191435398808</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.791411042944785</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0009986329460013</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.001999629216903</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0037502003924981</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.883745969912714</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rangitikei at d/s Riverlands</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.993313627801623</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.907975460122699</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.193920361247947</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.411407967032967</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0615962145794757</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-3.21060200741635</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1799980.004</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5547896.885</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitikeiatdsRiverlands_b208b9cbb8.xlsx
+++ b/trend_results/Rivers/RangitikeiatdsRiverlands_b208b9cbb8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.990277459245586</v>
+        <v>0.137772018717062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.740740740740741</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.975</v>
+        <v>0.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.140480769230769</v>
+        <v>-0.060090706707086</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0319820183771135</v>
+        <v>-0.183458057306943</v>
       </c>
       <c r="M2" t="n">
-        <v>0.267638139446371</v>
+        <v>0.0312348666394576</v>
       </c>
       <c r="N2" t="n">
-        <v>14.4082840236686</v>
+        <v>-8.584386672440861</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.970247657179785</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.929824561403509</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.3</v>
+        <v>11.38</v>
       </c>
       <c r="K3" t="n">
-        <v>0.146097336015754</v>
+        <v>-0.08832776300133011</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0338338464977407</v>
+        <v>-0.29178222653716</v>
       </c>
       <c r="M3" t="n">
-        <v>0.280065718999581</v>
+        <v>0.0503643232647396</v>
       </c>
       <c r="N3" t="n">
-        <v>1.29289677890048</v>
+        <v>-0.776166634458085</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.16761720689798</v>
+        <v>0.949001373212443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1055</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0030249153152672</v>
+        <v>-0.0115394917582418</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0021500746879454</v>
+        <v>-0.0261374548505451</v>
       </c>
       <c r="M4" t="n">
-        <v>0.018353913160317</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8672183083102</v>
+        <v>-16.3680734159458</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.376178357039413</v>
+        <v>0.182415861377412</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.706896551724138</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>2.51462994836489</v>
+        <v>7.45408163265306</v>
       </c>
       <c r="L5" t="n">
-        <v>-19.3267461261081</v>
+        <v>-7.00529056512111</v>
       </c>
       <c r="M5" t="n">
-        <v>20.2409765302417</v>
+        <v>24.7606617683387</v>
       </c>
       <c r="N5" t="n">
-        <v>2.0782065688966</v>
+        <v>6.21173469387755</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.3790176682516</v>
+        <v>0.94198297888247</v>
       </c>
       <c r="G6" t="n">
-        <v>0.259259259259259</v>
+        <v>0.145454545454545</v>
       </c>
       <c r="H6" t="n">
-        <v>0.814814814814815</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0596470234288232</v>
+        <v>0.0434720856078583</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.009238909723142801</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0070435185800213</v>
+        <v>-0.025689711218519</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009625840810514499</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-21.2525108790105</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0500512198000366</v>
+        <v>0.99767438460286</v>
       </c>
       <c r="G7" t="n">
         <v>0.0862068965517241</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0012471251962323</v>
+        <v>-0.0014993842364532</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0026418946260221</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0023434724446911</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8569466248038</v>
+        <v>-21.4197748064743</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.996810890729771</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.356</v>
+        <v>0.3355</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001003434065934</v>
+        <v>-0.0482760265072765</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0203001450130782</v>
+        <v>-0.0971798452410817</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0418858152787876</v>
+        <v>-0.0154385440133282</v>
       </c>
       <c r="N8" t="n">
-        <v>0.281863501666872</v>
+        <v>-14.3892776474744</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.58945120822402</v>
+        <v>0.0072503212958759</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.842105263157895</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.1</v>
+        <v>8.09</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0062356259811616</v>
+        <v>-0.0754498506719761</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0442587135050744</v>
+        <v>-0.156658439269395</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0953621305961474</v>
+        <v>-0.0278269644177031</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0769830368044651</v>
+        <v>-0.932631034264229</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.643788875060667</v>
+        <v>0.996810890729771</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0107257630904128</v>
+        <v>-0.0601678178963893</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0440252549863396</v>
+        <v>-0.130605437228519</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0283500615260494</v>
+        <v>-0.0217328063885554</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.45160299209435</v>
+        <v>-15.0419544740973</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.887204894130872</v>
+        <v>0.998446180432135</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0862068965517241</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.482758620689655</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.501372919775698</v>
+        <v>-0.06706915431266849</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.98199775573946</v>
+        <v>-0.154988941513221</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0.0290068809300227</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.68497226367597</v>
+        <v>-11.9766346986908</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.671309786444959</v>
+        <v>0.967337279767713</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.879310344827586</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.755</v>
+        <v>0.1445</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0132939035486806</v>
+        <v>-0.0077986191440138</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.09345733274581811</v>
+        <v>-0.0423313380152996</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0339176830330891</v>
+        <v>-0.0022527094562395</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.76078192697756</v>
+        <v>-5.39696826575354</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.179</v>
+        <v>4.39</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0017560096153846</v>
+        <v>0.247986449063988</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0205459769909851</v>
+        <v>-0.46157967032967</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0069709169044648</v>
+        <v>0.70761441992997</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.981010958315428</v>
+        <v>5.64889405612729</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.976730209576497</v>
+        <v>0.608559899555107</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.019047619047619</v>
       </c>
       <c r="H14" t="n">
-        <v>0.896551724137931</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.01</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.467735501173315</v>
+        <v>0.0049931774311238</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.42516939833763</v>
+        <v>-0.0350432364679039</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.232140112967682</v>
+        <v>0.0250721104870275</v>
       </c>
       <c r="N14" t="n">
-        <v>-11.6642269619281</v>
+        <v>0.7133110615891211</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.535788641691976</v>
+        <v>0.937988913910896</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0186915887850467</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.635514018691589</v>
+        <v>0.853448275862069</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>10.975</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0039983579638752</v>
+        <v>0.0401373626373627</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.050034038303803</v>
+        <v>-0.0024729298103137</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0436828615248397</v>
+        <v>0.08191928943369101</v>
       </c>
       <c r="N15" t="n">
-        <v>0.399835796387521</v>
+        <v>0.365716288267541</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.988270049502686</v>
+        <v>0.0005565570275397</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.862068965517241</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085</v>
+        <v>0.0475</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0546632653061231</v>
+        <v>0.0029895625271385</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0179985546255478</v>
+        <v>0.0011626604808662</v>
       </c>
       <c r="M16" t="n">
-        <v>0.100310688214566</v>
+        <v>0.005650914784607</v>
       </c>
       <c r="N16" t="n">
-        <v>0.493128239117032</v>
+        <v>6.2938158466074</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0834912631729199</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.008474576271186401</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.627118644067797</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002114871451985</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.6949152542372879</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.049</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0030103021978022</v>
+        <v>4.70925734914905</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0011984995726303</v>
+        <v>-1.01303570832792</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0065234700779065</v>
+        <v>10.6767948698141</v>
       </c>
       <c r="N17" t="n">
-        <v>6.14347387306571</v>
+        <v>3.92438112429087</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0405173770856447</v>
+        <v>1.81390572227693e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.401785714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>0.635593220338983</v>
+        <v>0.705357142857143</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>0.0226270990392069</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2671397555905</v>
+        <v>0.0028711121398132</v>
       </c>
       <c r="L18" t="n">
-        <v>0.738457577364512</v>
+        <v>0.0011258656440361</v>
       </c>
       <c r="M18" t="n">
-        <v>10.7705185739273</v>
+        <v>0.0047218044975639</v>
       </c>
       <c r="N18" t="n">
-        <v>5.22261646299208</v>
+        <v>12.6888211999176</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.43407979698314e-05</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.473214285714286</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="H19" t="n">
-        <v>0.633928571428571</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.018872401582167</v>
+        <v>0.006</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0024440353807294</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007817344955036</v>
+        <v>-0.0001878918434779</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0052773366992992</v>
+        <v>0.0002225098994821</v>
       </c>
       <c r="N19" t="n">
-        <v>12.9503146172923</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.383695722303803</v>
+        <v>3.82367157884703e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.101694915254237</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="H20" t="n">
-        <v>0.415254237288136</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008</v>
+        <v>0.1854</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0170123267416206</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001594710295324</v>
+        <v>0.0084042400948783</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0004980276414885</v>
+        <v>0.0283573379238751</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>9.17601226624631</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.59164265867745e-07</v>
+        <v>0.817053843454409</v>
       </c>
       <c r="G21" t="n">
-        <v>0.110169491525424</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.813559322033898</v>
+        <v>0.678260869565217</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1928</v>
+        <v>8.06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0198093237704918</v>
+        <v>0.0098450134770887</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008530651004811001</v>
+        <v>-0.0066579046348431</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0330831368015584</v>
+        <v>0.0299256789014933</v>
       </c>
       <c r="N21" t="n">
-        <v>10.274545524114</v>
+        <v>0.122146569194649</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.981382102342839</v>
+        <v>9.52638682425579e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H22" t="n">
-        <v>0.695652173913043</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.09</v>
+        <v>0.25</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0174343675417662</v>
+        <v>0.0203941235442259</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0033358552873126</v>
+        <v>0.009795994801984601</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0333948513065857</v>
+        <v>0.0333616558957451</v>
       </c>
       <c r="N22" t="n">
-        <v>0.215505161208482</v>
+        <v>8.157649417690379</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.47657023294443e-06</v>
+        <v>0.0047313388431768</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.889830508474576</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2575</v>
+        <v>0.42</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0222085346882034</v>
+        <v>0.0214453696648477</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0127410305814721</v>
+        <v>0.0064626707048372</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0390052998198467</v>
+        <v>0.0434508468457513</v>
       </c>
       <c r="N23" t="n">
-        <v>8.624673665321691</v>
+        <v>5.1060403963923</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.665851352667151</v>
+        <v>0.0004317525177058</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.440677966101695</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>0.0915</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0059509964443424</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.425236540925153</v>
+        <v>0.0029658987389708</v>
       </c>
       <c r="M24" t="n">
-        <v>0.166704701049749</v>
+        <v>0.0101742794696584</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>6.50382125064753</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0006181980677612</v>
+        <v>0.468427959445891</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.813559322033898</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.445</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0261887542220224</v>
+        <v>0.0146801560009435</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0100343406593407</v>
+        <v>-0.230789835164835</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0524266774387342</v>
+        <v>0.165720418243037</v>
       </c>
       <c r="N25" t="n">
-        <v>5.88511330831965</v>
+        <v>0.293603120018869</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.000241293399614</v>
+        <v>0.168096063560191</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="H26" t="n">
-        <v>0.822033898305085</v>
+        <v>0.527397260273973</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.091</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0073470852455814</v>
+        <v>-0.0117923677666119</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0030103021978022</v>
+        <v>-0.0358147514516172</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0134882839084319</v>
+        <v>0.0072533375529421</v>
       </c>
       <c r="N26" t="n">
-        <v>8.07372005008955</v>
+        <v>-1.3102630851791</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.468427959445891</v>
+        <v>0.996327194048802</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.932203389830508</v>
+        <v>0.831395348837209</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.645</v>
+        <v>10.91</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0057801422164336</v>
+        <v>0.0506588072122051</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.13638813218058</v>
+        <v>0.0194615187655761</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0937535210881799</v>
+        <v>0.08478420194211229</v>
       </c>
       <c r="N27" t="n">
-        <v>0.12443793792107</v>
+        <v>0.464333704969799</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.703320078213534</v>
+        <v>0.12542781828342</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.544117647058823</v>
+        <v>0.662857142857143</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.051</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0072995173421481</v>
+        <v>0.0005046680898953</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0142954990215264</v>
+        <v>-0.0002497221812737</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0451653886317862</v>
+        <v>0.001495921058812</v>
       </c>
       <c r="N28" t="n">
-        <v>0.729951734214813</v>
+        <v>0.989545274304633</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.999704001237622</v>
+        <v>0.909620630282323</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H29" t="n">
-        <v>0.85</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.93</v>
+        <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07983606557377031</v>
+        <v>-3.85058776552024</v>
       </c>
       <c r="L29" t="n">
-        <v>0.038536632475007</v>
+        <v>-8.403986584852881</v>
       </c>
       <c r="M29" t="n">
-        <v>0.116788366823801</v>
+        <v>0.795546135998105</v>
       </c>
       <c r="N29" t="n">
-        <v>0.730430609092135</v>
+        <v>-2.75041983251445</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0427369523763764</v>
+        <v>0.291173268174761</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.395209580838323</v>
       </c>
       <c r="H30" t="n">
-        <v>0.668711656441718</v>
+        <v>0.676646706586826</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>0.054</v>
+        <v>0.0248002815569786</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0009995894909688001</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.002014138130194</v>
+        <v>0.0004711619081001</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85109164994222</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.900894690480579</v>
+        <v>0.864794984002347</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.175757575757576</v>
       </c>
       <c r="H31" t="n">
-        <v>0.662576687116564</v>
+        <v>0.375757575757576</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>147</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.03963133640553</v>
+        <v>-0.0001040575959742</v>
       </c>
       <c r="L31" t="n">
-        <v>-8.65230540633576</v>
+        <v>-0.0004177960724701</v>
       </c>
       <c r="M31" t="n">
-        <v>0.894912369314076</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.74804852816703</v>
+        <v>-1.48653708534688</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.368506461868611</v>
+        <v>0.0088317177584836</v>
       </c>
       <c r="G32" t="n">
-        <v>0.425806451612903</v>
+        <v>0.115151515151515</v>
       </c>
       <c r="H32" t="n">
-        <v>0.651612903225806</v>
+        <v>0.812121212121212</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0231984221440062</v>
+        <v>0.192</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0050129048367219</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0012325598437913</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0002846377821577</v>
+        <v>0.0103151215280784</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.61088793579268</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.384503989969375</v>
+        <v>0.999999994318898</v>
       </c>
       <c r="G33" t="n">
-        <v>0.169934640522876</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.405228758169935</v>
+        <v>0.605882352941176</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008</v>
+        <v>7.98</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0433432222729347</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002375170282782</v>
+        <v>0.0317379291909274</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002989175959041</v>
+        <v>0.0537192796498905</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.543148148783643</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0034099209161277</v>
+        <v>0.338458194516711</v>
       </c>
       <c r="G34" t="n">
-        <v>0.124183006535948</v>
+        <v>0.0228571428571429</v>
       </c>
       <c r="H34" t="n">
-        <v>0.803921568627451</v>
+        <v>0.902857142857143</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1936</v>
+        <v>0.2625</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0071051671732522</v>
+        <v>0.0017073020864816</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0018446983898543</v>
+        <v>-0.0048360362858167</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0149758443085542</v>
+        <v>0.0069345741016513</v>
       </c>
       <c r="N34" t="n">
-        <v>3.67002436634932</v>
+        <v>0.650400794850155</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3560,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999999990459</v>
+        <v>0.541489879860666</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.632911392405063</v>
+        <v>0.6914285714285709</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.975</v>
+        <v>0.48</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0549248120300753</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0431734096176977</v>
+        <v>-0.0125046186633512</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0668956043956045</v>
+        <v>0.0060817411453681</v>
       </c>
       <c r="N35" t="n">
-        <v>0.688712376552669</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.213988587784096</v>
+        <v>0.322401020091867</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0245398773006135</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.883435582822086</v>
+        <v>0.794285714285714</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0027708620689655</v>
+        <v>0.0006897350642551</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0040535364642372</v>
+        <v>-0.0020557195951556</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0096392904113851</v>
+        <v>0.0030005538349278</v>
       </c>
       <c r="N36" t="n">
-        <v>1.02624521072797</v>
+        <v>0.627031876595615</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.364381283506809</v>
+        <v>0.925354985281999</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.723926380368098</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.49</v>
+        <v>6.97</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0016662864963503</v>
+        <v>-0.112126564952438</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0099899175317408</v>
+        <v>-0.255799705513971</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0116068444695702</v>
+        <v>0.006829593893783</v>
       </c>
       <c r="N37" t="n">
-        <v>0.340058468642931</v>
+        <v>-1.60870251007802</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Rangitikei at d/s Riverlands</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.244191435398808</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.791411042944785</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0009986329460013</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.001999629216903</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0037502003924981</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.883745969912714</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1799980.004</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5547896.885</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_4d</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Rangitikei at d/s Riverlands</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.993313627801623</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.907975460122699</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.193920361247947</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.411407967032967</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.0615962145794757</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.21060200741635</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1799980.004</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5547896.885</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_4d</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitikeiatdsRiverlands_b208b9cbb8.xlsx
+++ b/trend_results/Rivers/RangitikeiatdsRiverlands_b208b9cbb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -130,52 +130,49 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Likely increasing</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -654,31 +651,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.137772018717062</v>
+        <v>0.0003351396737629</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.711538461538462</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>-0.060090706707086</v>
+        <v>-0.234271137026239</v>
       </c>
       <c r="L2">
-        <v>-0.183458057306943</v>
+        <v>-0.411820789690018</v>
       </c>
       <c r="M2">
-        <v>0.0312348666394576</v>
+        <v>-0.107334432141342</v>
       </c>
       <c r="N2">
-        <v>-8.584386672440861</v>
+        <v>-46.8542274052478</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -693,19 +690,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,31 +722,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.208702717565428</v>
+        <v>0.080652113241755</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.38</v>
+        <v>11.24</v>
       </c>
       <c r="K3">
-        <v>-0.08832776300133011</v>
+        <v>-0.06488734317604999</v>
       </c>
       <c r="L3">
-        <v>-0.29178222653716</v>
+        <v>-0.228369449646391</v>
       </c>
       <c r="M3">
-        <v>0.0503643232647396</v>
+        <v>0.0163149169861535</v>
       </c>
       <c r="N3">
-        <v>-0.776166634458085</v>
+        <v>-0.577289530036032</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -764,19 +761,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,31 +793,31 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.949001373212443</v>
+        <v>0.941577432833962</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.879310344827586</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07049999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="K4">
-        <v>-0.0115394917582418</v>
+        <v>-0.0068812051435406</v>
       </c>
       <c r="L4">
-        <v>-0.0261374548505451</v>
+        <v>-0.0251273742427724</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-16.3680734159458</v>
+        <v>-10.1194193287363</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -835,19 +832,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,37 +864,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.182415861377412</v>
+        <v>0.198916437016458</v>
       </c>
       <c r="G5">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.793103448275862</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K5">
-        <v>7.45408163265306</v>
+        <v>7.98601609657948</v>
       </c>
       <c r="L5">
-        <v>-7.00529056512111</v>
+        <v>-7.70996797524653</v>
       </c>
       <c r="M5">
-        <v>24.7606617683387</v>
+        <v>33.1754899662754</v>
       </c>
       <c r="N5">
-        <v>6.21173469387755</v>
+        <v>6.60001330295824</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1799980.004</v>
@@ -906,19 +903,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,37 +935,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.94198297888247</v>
+        <v>0.661332585967868</v>
       </c>
       <c r="G6">
-        <v>0.145454545454545</v>
+        <v>0.2</v>
       </c>
       <c r="H6">
-        <v>0.872727272727273</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0434720856078583</v>
+        <v>0.0401537900666773</v>
       </c>
       <c r="K6">
-        <v>-0.009238909723142801</v>
+        <v>-4.54136279493441E-05</v>
       </c>
       <c r="L6">
-        <v>-0.025689711218519</v>
+        <v>-0.0121246414490638</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0037222522165266</v>
       </c>
       <c r="N6">
-        <v>-21.2525108790105</v>
+        <v>-0.113099231414849</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1799980.004</v>
@@ -977,19 +974,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,37 +1006,37 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.99767438460286</v>
+        <v>0.993390427528424</v>
       </c>
       <c r="G7">
-        <v>0.0862068965517241</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H7">
-        <v>0.482758620689655</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K7">
-        <v>-0.0014993842364532</v>
+        <v>-0.0012277310924369</v>
       </c>
       <c r="L7">
-        <v>-0.0026418946260221</v>
+        <v>-0.0024585023598875</v>
       </c>
       <c r="M7">
-        <v>-0.000668956043956</v>
+        <v>-0.0003175202067639</v>
       </c>
       <c r="N7">
-        <v>-21.4197748064743</v>
+        <v>-20.4621848739496</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1799980.004</v>
@@ -1048,19 +1045,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,37 +1077,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.996810890729771</v>
+        <v>0.997515532782173</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3355</v>
+        <v>0.2225</v>
       </c>
       <c r="K8">
-        <v>-0.0482760265072765</v>
+        <v>-0.049293698489011</v>
       </c>
       <c r="L8">
-        <v>-0.0971798452410817</v>
+        <v>-0.09682563286130851</v>
       </c>
       <c r="M8">
-        <v>-0.0154385440133282</v>
+        <v>-0.0235392073820995</v>
       </c>
       <c r="N8">
-        <v>-14.3892776474744</v>
+        <v>-22.1544712310162</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1799980.004</v>
@@ -1119,19 +1116,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,37 +1148,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0072503212958759</v>
+        <v>0.049003998530178</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.771929824561403</v>
+        <v>0.75</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.09</v>
+        <v>8.08</v>
       </c>
       <c r="K9">
-        <v>-0.0754498506719761</v>
+        <v>-0.050011920802128</v>
       </c>
       <c r="L9">
-        <v>-0.156658439269395</v>
+        <v>-0.135977343022552</v>
       </c>
       <c r="M9">
-        <v>-0.0278269644177031</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.932631034264229</v>
+        <v>-0.618959415867921</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1799980.004</v>
@@ -1190,16 +1187,16 @@
         <v>5547896.885</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,37 +1216,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.996810890729771</v>
+        <v>0.986711118317492</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4</v>
+        <v>0.2895</v>
       </c>
       <c r="K10">
-        <v>-0.0601678178963893</v>
+        <v>-0.0540666845196088</v>
       </c>
       <c r="L10">
-        <v>-0.130605437228519</v>
+        <v>-0.104857952741857</v>
       </c>
       <c r="M10">
-        <v>-0.0217328063885554</v>
+        <v>-0.0133325370474901</v>
       </c>
       <c r="N10">
-        <v>-15.0419544740973</v>
+        <v>-18.6758841173088</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1799980.004</v>
@@ -1258,19 +1255,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,37 +1287,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.998446180432135</v>
+        <v>0.998746768473747</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.827586206896552</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5600000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="K11">
-        <v>-0.06706915431266849</v>
+        <v>-0.0746066787941788</v>
       </c>
       <c r="L11">
-        <v>-0.154988941513221</v>
+        <v>-0.154494956867279</v>
       </c>
       <c r="M11">
-        <v>-0.0290068809300227</v>
+        <v>-0.0350680337808876</v>
       </c>
       <c r="N11">
-        <v>-11.9766346986908</v>
+        <v>-14.7735997612235</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1799980.004</v>
@@ -1329,19 +1326,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,37 +1358,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.967337279767713</v>
+        <v>0.849644476425844</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.982758620689655</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1445</v>
+        <v>0.1415</v>
       </c>
       <c r="K12">
-        <v>-0.0077986191440138</v>
+        <v>-0.0035266121084594</v>
       </c>
       <c r="L12">
-        <v>-0.0423313380152996</v>
+        <v>-0.039962455720387</v>
       </c>
       <c r="M12">
-        <v>-0.0022527094562395</v>
+        <v>0.0030913691587522</v>
       </c>
       <c r="N12">
-        <v>-5.39696826575354</v>
+        <v>-2.49230537700312</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1799980.004</v>
@@ -1400,19 +1397,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,19 +1423,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.356211124939333</v>
+        <v>0.326547982966255</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1447,22 +1444,22 @@
         <v>4.39</v>
       </c>
       <c r="K13">
-        <v>0.247986449063988</v>
+        <v>0.18552380952381</v>
       </c>
       <c r="L13">
-        <v>-0.46157967032967</v>
+        <v>-0.393720444766521</v>
       </c>
       <c r="M13">
-        <v>0.70761441992997</v>
+        <v>1.38142444817193</v>
       </c>
       <c r="N13">
-        <v>5.64889405612729</v>
+        <v>4.22605488664714</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1799980.004</v>
@@ -1471,19 +1468,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,40 +1497,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>0.608559899555107</v>
+        <v>0.474508184005732</v>
       </c>
       <c r="G14">
-        <v>0.019047619047619</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="H14">
-        <v>0.638095238095238</v>
+        <v>0.653465346534653</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="K14">
-        <v>0.0049931774311238</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.0350432364679039</v>
+        <v>-0.0377291991091854</v>
       </c>
       <c r="M14">
-        <v>0.0250721104870275</v>
+        <v>0.0173120339137356</v>
       </c>
       <c r="N14">
-        <v>0.7133110615891211</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1799980.004</v>
@@ -1542,19 +1539,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1571,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.937988913910896</v>
+        <v>0.7500378425175031</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.853448275862069</v>
+        <v>0.870689655172414</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.975</v>
+        <v>11.015</v>
       </c>
       <c r="K15">
-        <v>0.0401373626373627</v>
+        <v>0.0301030219780213</v>
       </c>
       <c r="L15">
-        <v>-0.0024729298103137</v>
+        <v>-0.0300259516610493</v>
       </c>
       <c r="M15">
-        <v>0.08191928943369101</v>
+        <v>0.0671408305568449</v>
       </c>
       <c r="N15">
-        <v>0.365716288267541</v>
+        <v>0.273291166391478</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1799980.004</v>
@@ -1613,19 +1610,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,37 +1642,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0005565570275397</v>
+        <v>0.009201906546836801</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.711864406779661</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0475</v>
+        <v>0.049</v>
       </c>
       <c r="K16">
-        <v>0.0029895625271385</v>
+        <v>0.0022230105043172</v>
       </c>
       <c r="L16">
-        <v>0.0011626604808662</v>
+        <v>0.0005015980557535</v>
       </c>
       <c r="M16">
-        <v>0.005650914784607</v>
+        <v>0.0040153894208076</v>
       </c>
       <c r="N16">
-        <v>6.2938158466074</v>
+        <v>4.53675613125963</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q16">
         <v>1799980.004</v>
@@ -1684,19 +1681,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,43 +1707,43 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.0834912631729199</v>
+        <v>0.262896442163179</v>
       </c>
       <c r="G17">
         <v>0.008474576271186401</v>
       </c>
       <c r="H17">
-        <v>0.627118644067797</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17">
-        <v>4.70925734914905</v>
+        <v>2.10997581963491</v>
       </c>
       <c r="L17">
-        <v>-1.01303570832792</v>
+        <v>-5.8231469523528</v>
       </c>
       <c r="M17">
-        <v>10.6767948698141</v>
+        <v>7.49069776138553</v>
       </c>
       <c r="N17">
-        <v>3.92438112429087</v>
+        <v>1.62305832279608</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>1799980.004</v>
@@ -1755,19 +1752,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,37 +1784,37 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>1.81390572227693E-05</v>
+        <v>0.0012631092418695</v>
       </c>
       <c r="G18">
-        <v>0.401785714285714</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="H18">
-        <v>0.705357142857143</v>
+        <v>0.75</v>
       </c>
       <c r="I18">
         <v>12</v>
       </c>
       <c r="J18">
-        <v>0.0226270990392069</v>
+        <v>0.0280467016970808</v>
       </c>
       <c r="K18">
-        <v>0.0028711121398132</v>
+        <v>0.0022956034702203</v>
       </c>
       <c r="L18">
-        <v>0.0011258656440361</v>
+        <v>0.0006003068103501</v>
       </c>
       <c r="M18">
-        <v>0.0047218044975639</v>
+        <v>0.0042441809408402</v>
       </c>
       <c r="N18">
-        <v>12.6888211999176</v>
+        <v>8.18493202877851</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>1799980.004</v>
@@ -1826,19 +1823,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,13 +1855,13 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.790612969082234</v>
       </c>
       <c r="G19">
-        <v>0.127118644067797</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H19">
-        <v>0.364406779661017</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1876,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0001878918434779</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="M19">
-        <v>0.0002225098994821</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1888,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1799980.004</v>
@@ -1897,19 +1894,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>3.82367157884703E-06</v>
+        <v>0.0140862317059118</v>
       </c>
       <c r="G20">
-        <v>0.09322033898305079</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H20">
         <v>0.830508474576271</v>
@@ -1941,25 +1938,25 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.1854</v>
+        <v>0.192</v>
       </c>
       <c r="K20">
-        <v>0.0170123267416206</v>
+        <v>0.0064039889937302</v>
       </c>
       <c r="L20">
-        <v>0.0084042400948783</v>
+        <v>0.0015894354793519</v>
       </c>
       <c r="M20">
-        <v>0.0283573379238751</v>
+        <v>0.0135463598901099</v>
       </c>
       <c r="N20">
-        <v>9.17601226624631</v>
+        <v>3.33541093423453</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1799980.004</v>
@@ -1968,19 +1965,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,37 +1997,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.817053843454409</v>
+        <v>0.809611530762592</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.678260869565217</v>
+        <v>0.660869565217391</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="K21">
-        <v>0.0098450134770887</v>
+        <v>0.0099946792338096</v>
       </c>
       <c r="L21">
-        <v>-0.0066579046348431</v>
+        <v>-0.009311515744727</v>
       </c>
       <c r="M21">
-        <v>0.0299256789014933</v>
+        <v>0.0281736469032269</v>
       </c>
       <c r="N21">
-        <v>0.122146569194649</v>
+        <v>0.12384980463209</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1799980.004</v>
@@ -2039,16 +2036,16 @@
         <v>5547896.885</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,40 +2062,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>9.52638682425579E-05</v>
+        <v>0.0382165618530866</v>
       </c>
       <c r="G22">
         <v>0.0338983050847458</v>
       </c>
       <c r="H22">
-        <v>0.872881355932203</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K22">
-        <v>0.0203941235442259</v>
+        <v>0.007818320291323899</v>
       </c>
       <c r="L22">
-        <v>0.009795994801984601</v>
+        <v>0.0009027392200063</v>
       </c>
       <c r="M22">
-        <v>0.0333616558957451</v>
+        <v>0.0174401106484502</v>
       </c>
       <c r="N22">
-        <v>8.157649417690379</v>
+        <v>3.00704626589381</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1799980.004</v>
@@ -2107,19 +2104,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2136,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0047313388431768</v>
+        <v>0.355560997594973</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.754237288135593</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="K23">
-        <v>0.0214453696648477</v>
+        <v>0.0033417200365965</v>
       </c>
       <c r="L23">
-        <v>0.0064626707048372</v>
+        <v>-0.0100463879965599</v>
       </c>
       <c r="M23">
-        <v>0.0434508468457513</v>
+        <v>0.0181568210750261</v>
       </c>
       <c r="N23">
-        <v>5.1060403963923</v>
+        <v>0.742604452577005</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1799980.004</v>
@@ -2178,19 +2175,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,7 +2207,7 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.0004317525177058</v>
+        <v>0.0341228031855125</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2222,25 +2219,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0915</v>
+        <v>0.1255</v>
       </c>
       <c r="K24">
-        <v>0.0059509964443424</v>
+        <v>0.0033562813373217</v>
       </c>
       <c r="L24">
-        <v>0.0029658987389708</v>
+        <v>0.0004892782372381</v>
       </c>
       <c r="M24">
-        <v>0.0101742794696584</v>
+        <v>0.0070852936631465</v>
       </c>
       <c r="N24">
-        <v>6.50382125064753</v>
+        <v>2.67432775882211</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q24">
         <v>1799980.004</v>
@@ -2249,19 +2246,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,37 +2278,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.468427959445891</v>
+        <v>0.728197267985387</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.932203389830508</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>5.11</v>
       </c>
       <c r="K25">
-        <v>0.0146801560009435</v>
+        <v>-0.0565393482691018</v>
       </c>
       <c r="L25">
-        <v>-0.230789835164835</v>
+        <v>-0.280409883088116</v>
       </c>
       <c r="M25">
-        <v>0.165720418243037</v>
+        <v>0.102682408908249</v>
       </c>
       <c r="N25">
-        <v>0.293603120018869</v>
+        <v>-1.10644517160669</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1799980.004</v>
@@ -2320,19 +2317,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,37 +2349,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.168096063560191</v>
+        <v>0.020650061932297</v>
       </c>
       <c r="G26">
-        <v>0.0136986301369863</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="H26">
-        <v>0.527397260273973</v>
+        <v>0.549295774647887</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K26">
-        <v>-0.0117923677666119</v>
+        <v>-0.0300041163371348</v>
       </c>
       <c r="L26">
-        <v>-0.0358147514516172</v>
+        <v>-0.0551888736263736</v>
       </c>
       <c r="M26">
-        <v>0.0072533375529421</v>
+        <v>-0.0050215564879189</v>
       </c>
       <c r="N26">
-        <v>-1.3102630851791</v>
+        <v>-3.75051454214185</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1799980.004</v>
@@ -2391,19 +2388,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,13 +2420,13 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.996327194048802</v>
+        <v>0.998359115671052</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.831395348837209</v>
+        <v>0.819767441860465</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2438,16 +2435,16 @@
         <v>10.91</v>
       </c>
       <c r="K27">
-        <v>0.0506588072122051</v>
+        <v>0.0531756141947225</v>
       </c>
       <c r="L27">
-        <v>0.0194615187655761</v>
+        <v>0.0240373318087364</v>
       </c>
       <c r="M27">
-        <v>0.08478420194211229</v>
+        <v>0.079216887821869</v>
       </c>
       <c r="N27">
-        <v>0.464333704969799</v>
+        <v>0.487402513242186</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
@@ -2462,19 +2459,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,7 +2491,7 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.12542781828342</v>
+        <v>0.0342497022071791</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2506,25 +2503,25 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="K28">
-        <v>0.0005046680898953</v>
+        <v>0.0010001372112378</v>
       </c>
       <c r="L28">
-        <v>-0.0002497221812737</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.001495921058812</v>
+        <v>0.0017988162752989</v>
       </c>
       <c r="N28">
-        <v>0.989545274304633</v>
+        <v>2.04109634946495</v>
       </c>
       <c r="O28" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1799980.004</v>
@@ -2533,19 +2530,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,13 +2562,13 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.909620630282323</v>
+        <v>0.7338822643281681</v>
       </c>
       <c r="G29">
         <v>0.0057142857142857</v>
       </c>
       <c r="H29">
-        <v>0.657142857142857</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2580,22 +2577,22 @@
         <v>140</v>
       </c>
       <c r="K29">
-        <v>-3.85058776552024</v>
+        <v>-1.99456248252726</v>
       </c>
       <c r="L29">
-        <v>-8.403986584852881</v>
+        <v>-7.30143765711121</v>
       </c>
       <c r="M29">
-        <v>0.795546135998105</v>
+        <v>2.1040789485824</v>
       </c>
       <c r="N29">
-        <v>-2.75041983251445</v>
+        <v>-1.42468748751947</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1799980.004</v>
@@ -2604,19 +2601,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30">
-        <v>0.291173268174761</v>
+        <v>0.127499518868356</v>
       </c>
       <c r="G30">
-        <v>0.395209580838323</v>
+        <v>0.389221556886228</v>
       </c>
       <c r="H30">
-        <v>0.676646706586826</v>
+        <v>0.682634730538922</v>
       </c>
       <c r="I30">
         <v>12</v>
@@ -2657,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0004711619081001</v>
+        <v>0.0007443477524426</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2666,7 +2663,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1799980.004</v>
@@ -2675,19 +2672,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,40 +2701,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>0.864794984002347</v>
+        <v>0.963598240262309</v>
       </c>
       <c r="G31">
-        <v>0.175757575757576</v>
+        <v>0.16</v>
       </c>
       <c r="H31">
-        <v>0.375757575757576</v>
+        <v>0.354285714285714</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K31">
-        <v>-0.0001040575959742</v>
+        <v>-0.0001878540388542</v>
       </c>
       <c r="L31">
-        <v>-0.0004177960724701</v>
+        <v>-0.0005015716278117</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-1.48653708534688</v>
+        <v>-3.13090064757008</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q31">
         <v>1799980.004</v>
@@ -2746,19 +2743,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2775,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.0088317177584836</v>
+        <v>0.0280879867555395</v>
       </c>
       <c r="G32">
-        <v>0.115151515151515</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="H32">
-        <v>0.812121212121212</v>
+        <v>0.794285714285714</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.192</v>
+        <v>0.188</v>
       </c>
       <c r="K32">
-        <v>0.0050129048367219</v>
+        <v>0.0028569944211259</v>
       </c>
       <c r="L32">
-        <v>0.0012325598437913</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0103151215280784</v>
+        <v>0.0063135594274248</v>
       </c>
       <c r="N32">
-        <v>2.61088793579268</v>
+        <v>1.51967788357761</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1799980.004</v>
@@ -2817,19 +2814,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,31 +2846,31 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999999994318898</v>
+        <v>0.99996428909109</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.605882352941176</v>
+        <v>0.6</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>0.0433432222729347</v>
+        <v>0.0267154285714286</v>
       </c>
       <c r="L33">
-        <v>0.0317379291909274</v>
+        <v>0.0162659460334968</v>
       </c>
       <c r="M33">
-        <v>0.0537192796498905</v>
+        <v>0.0364065250964058</v>
       </c>
       <c r="N33">
-        <v>0.543148148783643</v>
+        <v>0.333942857142857</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
@@ -2888,16 +2885,16 @@
         <v>5547896.885</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,37 +2914,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.338458194516711</v>
+        <v>0.145327708163601</v>
       </c>
       <c r="G34">
         <v>0.0228571428571429</v>
       </c>
       <c r="H34">
-        <v>0.902857142857143</v>
+        <v>0.891428571428571</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.2625</v>
+        <v>0.26</v>
       </c>
       <c r="K34">
-        <v>0.0017073020864816</v>
+        <v>0.0029390814119182</v>
       </c>
       <c r="L34">
-        <v>-0.0048360362858167</v>
+        <v>-0.0018187563549036</v>
       </c>
       <c r="M34">
-        <v>0.0069345741016513</v>
+        <v>0.008259692931944699</v>
       </c>
       <c r="N34">
-        <v>0.650400794850155</v>
+        <v>1.13041592766085</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1799980.004</v>
@@ -2956,19 +2953,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,31 +2982,31 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
-        <v>0.541489879860666</v>
+        <v>0.446718737342632</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.6914285714285709</v>
+        <v>0.697142857142857</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0125046186633512</v>
+        <v>-0.008889313887114</v>
       </c>
       <c r="M35">
-        <v>0.0060817411453681</v>
+        <v>0.0072352397786282</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3018,7 +3015,7 @@
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1799980.004</v>
@@ -3027,19 +3024,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,37 +3056,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.322401020091867</v>
+        <v>0.100443003908779</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.794285714285714</v>
+        <v>0.788571428571429</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.11</v>
+        <v>0.118</v>
       </c>
       <c r="K36">
-        <v>0.0006897350642551</v>
+        <v>0.0017409890337543</v>
       </c>
       <c r="L36">
-        <v>-0.0020557195951556</v>
+        <v>-0.000549979019754</v>
       </c>
       <c r="M36">
-        <v>0.0030005538349278</v>
+        <v>0.0037082273383924</v>
       </c>
       <c r="N36">
-        <v>0.627031876595615</v>
+        <v>1.475414435385</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>1799980.004</v>
@@ -3098,19 +3095,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3130,13 +3127,13 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.925354985281999</v>
+        <v>0.959015357361361</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.914285714285714</v>
+        <v>0.92</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3145,22 +3142,22 @@
         <v>6.97</v>
       </c>
       <c r="K37">
-        <v>-0.112126564952438</v>
+        <v>-0.12014104705199</v>
       </c>
       <c r="L37">
-        <v>-0.255799705513971</v>
+        <v>-0.310310127993849</v>
       </c>
       <c r="M37">
-        <v>0.006829593893783</v>
+        <v>-0.0040250067709716</v>
       </c>
       <c r="N37">
-        <v>-1.60870251007802</v>
+        <v>-1.72368790605437</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1799980.004</v>
@@ -3169,19 +3166,19 @@
         <v>5547896.885</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
